--- a/biology/Zoologie/Hadronyche_mascordi/Hadronyche_mascordi.xlsx
+++ b/biology/Zoologie/Hadronyche_mascordi/Hadronyche_mascordi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hadronyche mascordi est une espèce d'araignées mygalomorphes de la famille des Atracidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hadronyche mascordi est une espèce d'araignées mygalomorphes de la famille des Atracidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie[1]. Elle se rencontre dans la région de Kulnura et de Somersby[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Nouvelle-Galles du Sud en Australie. Elle se rencontre dans la région de Kulnura et de Somersby.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 6,19 mm de long sur 5,68 mm et l'abdomen 6,07 mm de long sur 4,51 mm et la carapace de la femelle paratype mesure 7,14 mm de long sur 7,04 mm et l'abdomen 12,50 mm de long sur 8,78 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 6,19 mm de long sur 5,68 mm et l'abdomen 6,07 mm de long sur 4,51 mm et la carapace de la femelle paratype mesure 7,14 mm de long sur 7,04 mm et l'abdomen 12,50 mm de long sur 8,78 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Ramon Mascord[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Ramon Mascord.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Gray, 2010 : A revision of the Australian funnel-web spiders (Hexathelidae: Atracinae). Records of the Australian Museum, vol. 62, p. 285-392 (texte intégral).</t>
         </is>
